--- a/Examples/scgp/scgp_model.xlsx
+++ b/Examples/scgp/scgp_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\kotas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\scgp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51632564-892A-4755-80BD-F1E069D8F1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F447D5A-F1DA-4D77-87B5-55022D89EDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="25740" windowHeight="14700" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="25740" windowHeight="14700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$5</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$5</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$F$5</definedName>
     <definedName name="cgam_sample" localSheetId="7">Exergy_Boiler!$A$1:$C$7</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
@@ -2446,18 +2446,19 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2465,13 +2466,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2479,13 +2480,13 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2493,13 +2494,13 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>66</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2507,13 +2508,13 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>64</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2521,13 +2522,13 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>68</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2535,13 +2536,13 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>71</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2549,13 +2550,13 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2563,13 +2564,13 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2577,13 +2578,13 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2591,13 +2592,13 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2609,7 +2610,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D10</xm:sqref>
+          <xm:sqref>B2:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3239,7 +3240,7 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/Examples/scgp/scgp_model.xlsx
+++ b/Examples/scgp/scgp_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\scgp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F447D5A-F1DA-4D77-87B5-55022D89EDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E297E9D-3C13-4285-8F87-200B5AC9DB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="25740" windowHeight="14700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8490" yWindow="780" windowWidth="14520" windowHeight="14700" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -2446,7 +2446,7 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B10"/>
     </sheetView>
   </sheetViews>
@@ -3357,8 +3357,8 @@
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3383,7 +3383,7 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>0</v>
